--- a/結合テスト_エビデンス_修正版/結合テスト仕様書.xlsx
+++ b/結合テスト_エビデンス_修正版/結合テスト仕様書.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1057,7 +1057,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NG</t>
+    <t>※ログが長すぎるので途中のログは除きます(ログファイルには出力されています)</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1108,9 +1120,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1711,53 +1724,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1772,6 +1740,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1795,7 +1769,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1804,11 +1784,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2776,15 +2789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2792,9 +2805,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2657475" y="5467350"/>
-          <a:ext cx="4629150" cy="514350"/>
+        <a:xfrm flipV="1">
+          <a:off x="2609850" y="5448300"/>
+          <a:ext cx="4714875" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2975,6 +2988,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4552950" y="5524500"/>
+          <a:ext cx="2743200" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2983,19 +3046,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247044</xdr:colOff>
+      <xdr:colOff>447093</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>47374</xdr:rowOff>
+      <xdr:rowOff>18811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPr id="51" name="図 50"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3008,8 +3071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5629275" y="6953250"/>
-          <a:ext cx="4847619" cy="2009524"/>
+          <a:off x="6019800" y="7019925"/>
+          <a:ext cx="4657143" cy="1914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3023,17 +3086,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>437588</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>18756</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504169</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPr id="12" name="図 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3046,8 +3109,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5210175"/>
-          <a:ext cx="4495238" cy="2352381"/>
+          <a:off x="0" y="5248275"/>
+          <a:ext cx="5247619" cy="2628572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3058,20 +3121,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>227893</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85298</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371028</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75377</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3084,8 +3147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="266700"/>
-          <a:ext cx="5657143" cy="3419048"/>
+          <a:off x="7019925" y="0"/>
+          <a:ext cx="3580953" cy="6590477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3096,20 +3159,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138789</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627893</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18541</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3122,8 +3185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048501" y="0"/>
-          <a:ext cx="4638674" cy="6653889"/>
+          <a:off x="0" y="228600"/>
+          <a:ext cx="6057143" cy="4076191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3132,104 +3195,28 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>456467</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>56675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8934450" y="542925"/>
-          <a:ext cx="5866667" cy="3800000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>65921</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>113819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9744075" y="1581150"/>
-          <a:ext cx="6038096" cy="3847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8943975" y="4133850"/>
-          <a:ext cx="514350" cy="190500"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7058025" y="6305550"/>
+          <a:ext cx="180975" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3263,114 +3250,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9820275" y="5172074"/>
-          <a:ext cx="647700" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7067550" y="6248397"/>
-          <a:ext cx="247650" cy="123827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
@@ -3378,7 +3259,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3387,8 +3268,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3676650" y="1162050"/>
-          <a:ext cx="5524500" cy="447675"/>
+          <a:off x="3914775" y="1162050"/>
+          <a:ext cx="5286375" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3470,13 +3351,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3487,58 +3368,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4638675" y="533400"/>
-          <a:ext cx="2647951" cy="1819275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2609851" y="6486526"/>
-          <a:ext cx="3267074" cy="1095374"/>
+          <a:off x="4638676" y="676275"/>
+          <a:ext cx="2619374" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3729,348 +3560,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>580017</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>36939</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9258300"/>
-          <a:ext cx="8066667" cy="9295239"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>570750</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>17891</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="18859500"/>
-          <a:ext cx="6000000" cy="9276191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561141</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>170284</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="28384500"/>
-          <a:ext cx="6676191" cy="9333334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104084</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>65510</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="37890450"/>
-          <a:ext cx="5533334" cy="9323810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>435961</xdr:colOff>
-      <xdr:row>364</xdr:row>
-      <xdr:rowOff>27482</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="53682900"/>
-          <a:ext cx="17523811" cy="8752382"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>365</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>321932</xdr:colOff>
-      <xdr:row>416</xdr:row>
-      <xdr:rowOff>56051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="73894950"/>
-          <a:ext cx="15352382" cy="8800001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>418</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>626865</xdr:colOff>
-      <xdr:row>469</xdr:row>
-      <xdr:rowOff>103670</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="82981800"/>
-          <a:ext cx="14285715" cy="8847620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>471</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>350246</xdr:colOff>
-      <xdr:row>521</xdr:row>
-      <xdr:rowOff>122739</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="92068650"/>
-          <a:ext cx="17438096" cy="8695239"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>189370</xdr:colOff>
-      <xdr:row>311</xdr:row>
-      <xdr:rowOff>113706</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="48682275"/>
-          <a:ext cx="9047620" cy="4752381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4123,6 +3612,931 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>637429</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="523875"/>
+          <a:ext cx="5971429" cy="3828572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142121</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506075" y="1638300"/>
+          <a:ext cx="6038096" cy="3847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="4133850"/>
+          <a:ext cx="514350" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="5238749"/>
+          <a:ext cx="647700" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638426" y="6477001"/>
+          <a:ext cx="3648074" cy="1171574"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1125</xdr:colOff>
+      <xdr:row>620</xdr:row>
+      <xdr:rowOff>157689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="99774375"/>
+          <a:ext cx="16336500" cy="8650814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>672</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>588683</xdr:colOff>
+      <xdr:row>721</xdr:row>
+      <xdr:rowOff>151343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="117443250"/>
+          <a:ext cx="14876183" cy="8612718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>622</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>366118</xdr:colOff>
+      <xdr:row>670</xdr:row>
+      <xdr:rowOff>151360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="108670725"/>
+          <a:ext cx="17384118" cy="8479385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>675255</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>170293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9429750"/>
+          <a:ext cx="8161905" cy="9257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4657725" y="7734300"/>
+          <a:ext cx="1619251" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65988</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>55986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18859500"/>
+          <a:ext cx="5495238" cy="9314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>170750</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>65510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28460700"/>
+          <a:ext cx="5600000" cy="9323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>589884</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>84558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37890450"/>
+          <a:ext cx="5333334" cy="9342858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>283494</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>84536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48520350"/>
+          <a:ext cx="18057144" cy="9514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>351703</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>113129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="58121550"/>
+          <a:ext cx="5780953" cy="9371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>321589</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>90896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect t="60358"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="78708249"/>
+          <a:ext cx="18022214" cy="3805647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>407304</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>106763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:srcRect t="59043"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="82407125"/>
+          <a:ext cx="18107929" cy="3964388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>359685</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>62326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect t="60870"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="86598125"/>
+          <a:ext cx="18060310" cy="3745326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>519</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>347071</xdr:colOff>
+      <xdr:row>570</xdr:row>
+      <xdr:rowOff>2102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="90789125"/>
+          <a:ext cx="17365071" cy="8749227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>724</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>290364</xdr:colOff>
+      <xdr:row>772</xdr:row>
+      <xdr:rowOff>113239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="126428500"/>
+          <a:ext cx="13895239" cy="8495239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>775</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>423697</xdr:colOff>
+      <xdr:row>824</xdr:row>
+      <xdr:rowOff>14804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="135334375"/>
+          <a:ext cx="14028572" cy="8571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>827</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>150596</xdr:colOff>
+      <xdr:row>874</xdr:row>
+      <xdr:rowOff>43426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="141836775"/>
+          <a:ext cx="14495246" cy="8053951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>378732</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>122653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="67722750"/>
+          <a:ext cx="18152382" cy="9380953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5403,31 +5817,31 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="62"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="30" t="s">
         <v>18</v>
       </c>
@@ -5451,11 +5865,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="62"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -5474,9 +5888,9 @@
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="62"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
@@ -5491,9 +5905,9 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="62"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="42" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5510,9 +5924,9 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
@@ -5527,9 +5941,9 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
@@ -5544,9 +5958,9 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="62"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -5563,9 +5977,9 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
@@ -5580,9 +5994,9 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="62"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
@@ -5597,7 +6011,7 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="30" t="s">
         <v>19</v>
       </c>
@@ -5618,11 +6032,11 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="62"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5644,9 +6058,9 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -5666,7 +6080,7 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
@@ -5692,13 +6106,13 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="12" t="s">
         <v>24</v>
       </c>
@@ -5715,9 +6129,9 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
@@ -5740,11 +6154,11 @@
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="7" t="s">
         <v>70</v>
       </c>
@@ -5763,11 +6177,11 @@
       <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="7" t="s">
         <v>73</v>
       </c>
@@ -5786,11 +6200,11 @@
       <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="7" t="s">
         <v>71</v>
       </c>
@@ -5807,9 +6221,9 @@
       <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
@@ -5828,11 +6242,11 @@
       <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="5" t="s">
         <v>22</v>
       </c>
@@ -5851,9 +6265,9 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="14" t="s">
         <v>23</v>
       </c>
@@ -5875,12 +6289,12 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="8" t="s">
         <v>74</v>
       </c>
@@ -5909,20 +6323,20 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="68" t="s">
-        <v>83</v>
+      <c r="G25" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>81</v>
@@ -5943,12 +6357,12 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="6" t="s">
         <v>82</v>
       </c>
@@ -5977,12 +6391,12 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="35">
         <v>43578</v>
       </c>
@@ -6082,6 +6496,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B20:C21"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="A16:A23"/>
@@ -6093,15 +6516,6 @@
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B20:C21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6338,9 +6752,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B827"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6491,35 +6905,45 @@
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="34"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" s="34"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="34"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" s="34"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="34"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" s="34"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" s="34"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="36"/>
       <c r="B57" s="34"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" s="67"/>
+      <c r="A282" s="36"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A453" s="36"/>
+    </row>
+    <row r="825" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A827" s="68" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6566,7 +6990,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="67"/>
+      <c r="A102" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/結合テスト_エビデンス_修正版/結合テスト仕様書.xlsx
+++ b/結合テスト_エビデンス_修正版/結合テスト仕様書.xlsx
@@ -1727,6 +1727,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,12 +1791,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,13 +1814,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1783,45 +1822,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5817,31 +5817,31 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="30" t="s">
         <v>18</v>
       </c>
@@ -5865,11 +5865,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -5888,9 +5888,9 @@
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
@@ -5905,9 +5905,9 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="51" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5924,9 +5924,9 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
@@ -5941,9 +5941,9 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="3" t="s">
         <v>63</v>
       </c>
@@ -5958,9 +5958,9 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="51" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -5977,9 +5977,9 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
@@ -5994,9 +5994,9 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="30" t="s">
         <v>19</v>
       </c>
@@ -6032,11 +6032,11 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -6058,9 +6058,9 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
@@ -6106,13 +6106,13 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="12" t="s">
         <v>24</v>
       </c>
@@ -6129,9 +6129,9 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
@@ -6154,11 +6154,11 @@
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="7" t="s">
         <v>70</v>
       </c>
@@ -6177,11 +6177,11 @@
       <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="7" t="s">
         <v>73</v>
       </c>
@@ -6200,11 +6200,11 @@
       <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="66" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="7" t="s">
         <v>71</v>
       </c>
@@ -6221,9 +6221,9 @@
       <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
@@ -6242,11 +6242,11 @@
       <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="5" t="s">
         <v>22</v>
       </c>
@@ -6265,9 +6265,9 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="14" t="s">
         <v>23</v>
       </c>
@@ -6289,12 +6289,12 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="8" t="s">
         <v>74</v>
       </c>
@@ -6323,12 +6323,12 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="6" t="s">
         <v>81</v>
       </c>
@@ -6357,12 +6357,12 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="6" t="s">
         <v>82</v>
       </c>
@@ -6391,12 +6391,12 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="35">
         <v>43578</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>43578</v>
       </c>
       <c r="G27" s="35">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="H27" s="35">
         <v>43578</v>
@@ -6496,15 +6496,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B20:C21"/>
     <mergeCell ref="E2:K2"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="A16:A23"/>
@@ -6516,6 +6507,15 @@
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B20:C21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="825" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="827" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A827" s="68" t="s">
+      <c r="A827" s="37" t="s">
         <v>83</v>
       </c>
     </row>
